--- a/plate_info/SummaryAnalizedPlates.xlsx
+++ b/plate_info/SummaryAnalizedPlates.xlsx
@@ -1,35 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyartegalvezla/Dropbox/2019-PostDoc-Mycorrhiza/AMF-PlateList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coren\Documents\WUR\MsC Thesis\code\plate_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80F59C3-CC3C-9240-BAFE-AC2A8F7A4947}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9F4167-2755-46F8-B0A2-FE708A50B43C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{82D79ED9-50EF-C049-AB06-E57D2479A472}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82D79ED9-50EF-C049-AB06-E57D2479A472}"/>
   </bookViews>
   <sheets>
     <sheet name="Main sum" sheetId="3" r:id="rId1"/>
-    <sheet name="Main before 11-01-2021" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="38">
   <si>
     <t>P-bait</t>
   </si>
@@ -37,16 +45,10 @@
     <t>crossed date</t>
   </si>
   <si>
-    <t>ANALYSIS</t>
-  </si>
-  <si>
     <t>First 10 days</t>
   </si>
   <si>
     <t>First 30 days</t>
-  </si>
-  <si>
-    <t>The 45 days</t>
   </si>
   <si>
     <t>stitched</t>
@@ -107,9 +109,6 @@
   </si>
   <si>
     <t>02.11.2020</t>
-  </si>
-  <si>
-    <t>fully analysed</t>
   </si>
   <si>
     <t>Done in surfsara</t>
@@ -263,7 +262,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,12 +272,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -312,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -336,37 +329,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -660,390 +623,327 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vérification" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7148,7 +7048,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7450,3511 +7350,3513 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1" style="16" customWidth="1"/>
-    <col min="2" max="4" width="10.6640625" style="17" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="17" customWidth="1"/>
-    <col min="7" max="19" width="8.83203125" style="17" customWidth="1"/>
-    <col min="20" max="30" width="8.83203125" style="16" customWidth="1"/>
-    <col min="31" max="31" width="9.33203125" style="16" customWidth="1"/>
-    <col min="32" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="1" style="3" customWidth="1"/>
+    <col min="2" max="4" width="10.69921875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.796875" style="4" customWidth="1"/>
+    <col min="7" max="19" width="8.796875" style="4" customWidth="1"/>
+    <col min="20" max="30" width="8.796875" style="3" customWidth="1"/>
+    <col min="31" max="31" width="9.296875" style="3" customWidth="1"/>
+    <col min="32" max="16384" width="10.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:37" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="125" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="126"/>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="126"/>
-      <c r="AD2" s="127"/>
+    <row r="1" spans="2:37" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:37" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="111"/>
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="112"/>
     </row>
-    <row r="3" spans="2:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="129" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="129" t="s">
+    <row r="3" spans="2:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="113" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="109"/>
+    </row>
+    <row r="4" spans="2:37" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="130"/>
-      <c r="V3" s="130"/>
-      <c r="W3" s="122" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="124"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="98"/>
+      <c r="K4" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="98"/>
+      <c r="M4" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="115"/>
+      <c r="O4" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="98"/>
+      <c r="S4" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="98"/>
+      <c r="U4" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="99"/>
+      <c r="W4" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="99"/>
     </row>
-    <row r="4" spans="2:37" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="118" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="118" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="120" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="113"/>
-      <c r="K4" s="114" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="113"/>
-      <c r="M4" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="115"/>
-      <c r="O4" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="113"/>
-      <c r="S4" s="114" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="113"/>
-      <c r="U4" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="128"/>
-      <c r="W4" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="X4" s="113"/>
-      <c r="Y4" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="113"/>
-      <c r="AA4" s="114" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB4" s="113"/>
-      <c r="AC4" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD4" s="128"/>
+    <row r="5" spans="2:37" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="102"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="X5" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z5" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB5" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD5" s="18" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="2:37" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="117"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="V5" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="X5" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z5" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB5" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD5" s="31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B6" s="54">
+    <row r="6" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B6" s="41">
         <v>298</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="42">
         <v>13</v>
       </c>
-      <c r="D6" s="55" t="str">
+      <c r="D6" s="42" t="str">
         <f>VLOOKUP($B6,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>none</v>
       </c>
-      <c r="E6" s="55" t="str">
+      <c r="E6" s="42" t="str">
         <f>VLOOKUP($B6,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>27.06.2020</v>
       </c>
-      <c r="F6" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="58"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R6" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S6" s="21"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X6" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="60"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
+      <c r="F6" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="45"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="8"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="47"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
     </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B7" s="49">
+    <row r="7" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B7" s="36">
         <v>283</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="39">
         <v>27</v>
       </c>
-      <c r="D7" s="52" t="str">
+      <c r="D7" s="39" t="str">
         <f>VLOOKUP($B7,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>none</v>
       </c>
-      <c r="E7" s="52" t="str">
+      <c r="E7" s="39" t="str">
         <f>VLOOKUP($B7,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>07.07.2020</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="F7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="20"/>
+      <c r="AF7" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG7" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R7" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S7" s="21"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X7" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="33"/>
-      <c r="AF7" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG7" s="110" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH7" s="110"/>
-      <c r="AI7" s="110"/>
-      <c r="AJ7" s="110"/>
-      <c r="AK7" s="110"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="116"/>
+      <c r="AJ7" s="116"/>
+      <c r="AK7" s="116"/>
     </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B8" s="49">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B8" s="36">
         <v>296</v>
       </c>
-      <c r="C8" s="52">
-        <v>9</v>
-      </c>
-      <c r="D8" s="52" t="str">
+      <c r="C8" s="39">
+        <v>9</v>
+      </c>
+      <c r="D8" s="39" t="str">
         <f>VLOOKUP($B8,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>none</v>
       </c>
-      <c r="E8" s="52" t="str">
+      <c r="E8" s="39" t="str">
         <f>VLOOKUP($B8,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>14.07.2020</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R8" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S8" s="21"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X8" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y8" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z8" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="33"/>
-      <c r="AF8" s="111"/>
-      <c r="AG8" s="110" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH8" s="110"/>
-      <c r="AI8" s="110"/>
-      <c r="AJ8" s="110"/>
-      <c r="AK8" s="110"/>
+      <c r="F8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="8"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="20"/>
+      <c r="AF8" s="117"/>
+      <c r="AG8" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="116"/>
+      <c r="AJ8" s="116"/>
+      <c r="AK8" s="116"/>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B9" s="49">
+    <row r="9" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B9" s="36">
         <v>297</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="39">
         <v>39</v>
       </c>
-      <c r="D9" s="52" t="str">
+      <c r="D9" s="39" t="str">
         <f>VLOOKUP($B9,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>none</v>
       </c>
-      <c r="E9" s="52" t="str">
+      <c r="E9" s="39" t="str">
         <f>VLOOKUP($B9,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>13.08.2020</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S9" s="21"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X9" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="33"/>
-      <c r="AF9" s="111"/>
-      <c r="AG9" s="110" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH9" s="110"/>
-      <c r="AI9" s="110"/>
-      <c r="AJ9" s="110"/>
-      <c r="AK9" s="110"/>
+      <c r="F9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="8"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="20"/>
+      <c r="AF9" s="117"/>
+      <c r="AG9" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH9" s="116"/>
+      <c r="AI9" s="116"/>
+      <c r="AJ9" s="116"/>
+      <c r="AK9" s="116"/>
     </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B10" s="49">
+    <row r="10" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B10" s="36">
         <v>330</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="39">
         <v>6</v>
       </c>
-      <c r="D10" s="52" t="str">
+      <c r="D10" s="39" t="str">
         <f>VLOOKUP($B10,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>none</v>
       </c>
-      <c r="E10" s="52" t="str">
+      <c r="E10" s="39" t="str">
         <f>VLOOKUP($B10,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>13.08.2020</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R10" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S10" s="21"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X10" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="33"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
+      <c r="F10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="8"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X10" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="20"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
     </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B11" s="49">
+    <row r="11" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B11" s="36">
         <v>340</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="39">
         <v>3</v>
       </c>
-      <c r="D11" s="52" t="str">
+      <c r="D11" s="39" t="str">
         <f>VLOOKUP($B11,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>none</v>
       </c>
-      <c r="E11" s="52" t="str">
+      <c r="E11" s="39" t="str">
         <f>VLOOKUP($B11,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>13.08.2020</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="S11" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="T11" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="U11" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="V11" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="W11" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="X11" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y11" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z11" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA11" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB11" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC11" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD11" s="76" t="s">
-        <v>24</v>
+      <c r="F11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V11" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="W11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="X11" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z11" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB11" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD11" s="63" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B12" s="49">
+    <row r="12" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B12" s="36">
         <v>269</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="39">
         <v>37</v>
       </c>
-      <c r="D12" s="52" t="str">
+      <c r="D12" s="39" t="str">
         <f>VLOOKUP($B12,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>none</v>
       </c>
-      <c r="E12" s="52" t="str">
+      <c r="E12" s="39" t="str">
         <f>VLOOKUP($B12,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>25.08.2020</v>
       </c>
-      <c r="F12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="8"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X12" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="20"/>
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B13" s="36">
+        <v>314</v>
+      </c>
+      <c r="C13" s="39">
         <v>11</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R12" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12" s="21"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X12" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="33"/>
-    </row>
-    <row r="13" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B13" s="49">
-        <v>314</v>
-      </c>
-      <c r="C13" s="52">
-        <v>11</v>
-      </c>
-      <c r="D13" s="52" t="str">
+      <c r="D13" s="39" t="str">
         <f>VLOOKUP($B13,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>none</v>
       </c>
-      <c r="E13" s="52" t="str">
+      <c r="E13" s="39" t="str">
         <f>VLOOKUP($B13,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>25.08.2020</v>
       </c>
-      <c r="F13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R13" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S13" s="21"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X13" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="33"/>
+      <c r="F13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="20"/>
     </row>
-    <row r="14" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B14" s="49">
+    <row r="14" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B14" s="36">
         <v>319</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="39">
         <v>5</v>
       </c>
-      <c r="D14" s="52" t="str">
+      <c r="D14" s="39" t="str">
         <f>VLOOKUP($B14,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>none</v>
       </c>
-      <c r="E14" s="52" t="str">
+      <c r="E14" s="39" t="str">
         <f>VLOOKUP($B14,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>25.08.2020</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R14" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S14" s="21"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X14" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="33"/>
+      <c r="F14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14" s="8"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="20"/>
     </row>
-    <row r="15" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B15" s="49">
+    <row r="15" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B15" s="36">
         <v>344</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="39">
         <v>19</v>
       </c>
-      <c r="D15" s="52" t="str">
+      <c r="D15" s="39" t="str">
         <f>VLOOKUP($B15,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>none</v>
       </c>
-      <c r="E15" s="52" t="str">
+      <c r="E15" s="39" t="str">
         <f>VLOOKUP($B15,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>25.08.2020</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R15" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S15" s="21"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="X15" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="33"/>
+      <c r="F15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="20"/>
     </row>
-    <row r="16" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B16" s="49">
+    <row r="16" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B16" s="36">
         <v>351</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="39">
         <v>35</v>
       </c>
-      <c r="D16" s="52" t="str">
+      <c r="D16" s="39" t="str">
         <f>VLOOKUP($B16,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>none</v>
       </c>
-      <c r="E16" s="52" t="str">
+      <c r="E16" s="39" t="str">
         <f>VLOOKUP($B16,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>25.08.2020</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="P16" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="R16" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="S16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="T16" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="U16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="V16" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="W16" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="X16" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z16" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB16" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD16" s="76" t="s">
-        <v>24</v>
+      <c r="F16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="T16" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V16" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="W16" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="X16" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z16" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB16" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD16" s="63" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B17" s="49">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B17" s="36">
         <v>373</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="39">
         <v>29</v>
       </c>
-      <c r="D17" s="52" t="str">
+      <c r="D17" s="39" t="str">
         <f>VLOOKUP($B17,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>none</v>
       </c>
-      <c r="E17" s="52" t="str">
+      <c r="E17" s="39" t="str">
         <f>VLOOKUP($B17,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>25.08.2020</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R17" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S17" s="21"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X17" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="33"/>
+      <c r="F17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S17" s="8"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X17" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="20"/>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B18" s="49">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B18" s="36">
         <v>379</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="39">
         <v>27</v>
       </c>
-      <c r="D18" s="52" t="str">
+      <c r="D18" s="39" t="str">
         <f>VLOOKUP($B18,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>none</v>
       </c>
-      <c r="E18" s="52" t="str">
+      <c r="E18" s="39" t="str">
         <f>VLOOKUP($B18,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>25.08.2020</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R18" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S18" s="21"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X18" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="33"/>
+      <c r="F18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" s="8"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X18" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="20"/>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B19" s="49">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B19" s="36">
         <v>354</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="39">
         <v>15</v>
       </c>
-      <c r="D19" s="52" t="str">
+      <c r="D19" s="39" t="str">
         <f>VLOOKUP($B19,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>none</v>
       </c>
-      <c r="E19" s="52" t="str">
+      <c r="E19" s="39" t="str">
         <f>VLOOKUP($B19,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>15.09.2020</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="21"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R19" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S19" s="21"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X19" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="33"/>
+      <c r="F19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" s="8"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X19" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="20"/>
     </row>
-    <row r="20" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="102"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="104"/>
-      <c r="X20" s="105"/>
-      <c r="Y20" s="102"/>
-      <c r="Z20" s="101"/>
-      <c r="AA20" s="102"/>
-      <c r="AB20" s="101"/>
-      <c r="AC20" s="102"/>
-      <c r="AD20" s="103"/>
+    <row r="20" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="88"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="92"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="88"/>
+      <c r="AC20" s="89"/>
+      <c r="AD20" s="90"/>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B21" s="49">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B21" s="36">
         <v>395</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="39">
         <v>10</v>
       </c>
-      <c r="D21" s="52" t="str">
+      <c r="D21" s="39" t="str">
         <f>VLOOKUP($B21,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>right</v>
       </c>
-      <c r="E21" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P21" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R21" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S21" s="21"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X21" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="33"/>
+      <c r="E21" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="8"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X21" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="20"/>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B22" s="49">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B22" s="36">
         <v>399</v>
       </c>
-      <c r="C22" s="52">
+      <c r="C22" s="39">
         <v>14</v>
       </c>
-      <c r="D22" s="52" t="str">
+      <c r="D22" s="39" t="str">
         <f>VLOOKUP($B22,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>left</v>
       </c>
-      <c r="E22" s="52" t="str">
+      <c r="E22" s="39" t="str">
         <f>VLOOKUP($B22,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>14.09.2020</v>
       </c>
-      <c r="F22" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="21"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R22" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S22" s="21"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X22" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="33"/>
+      <c r="F22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="8"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X22" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="20"/>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B23" s="49">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B23" s="36">
         <v>420</v>
       </c>
-      <c r="C23" s="52">
+      <c r="C23" s="39">
         <v>33</v>
       </c>
-      <c r="D23" s="52" t="str">
+      <c r="D23" s="39" t="str">
         <f>VLOOKUP($B23,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>left</v>
       </c>
-      <c r="E23" s="52" t="str">
+      <c r="E23" s="39" t="str">
         <f>VLOOKUP($B23,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>28.09.2020</v>
       </c>
-      <c r="F23" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P23" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R23" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S23" s="21"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X23" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="33"/>
+      <c r="F23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R23" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23" s="8"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X23" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="20"/>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B24" s="49">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B24" s="36">
         <v>433</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="39">
         <v>39</v>
       </c>
-      <c r="D24" s="52" t="str">
+      <c r="D24" s="39" t="str">
         <f>VLOOKUP($B24,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>right</v>
       </c>
-      <c r="E24" s="52" t="str">
+      <c r="E24" s="39" t="str">
         <f>VLOOKUP($B24,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>28.09.2020</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="21"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R24" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S24" s="21"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X24" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="47"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="33"/>
+      <c r="F24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S24" s="8"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X24" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="20"/>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B25" s="49">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B25" s="36">
         <v>423</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="39">
         <v>4</v>
       </c>
-      <c r="D25" s="52" t="str">
+      <c r="D25" s="39" t="str">
         <f>VLOOKUP($B25,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>left</v>
       </c>
-      <c r="E25" s="52" t="str">
+      <c r="E25" s="39" t="str">
         <f>VLOOKUP($B25,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>29.09.2020</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="21"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q25" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R25" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S25" s="21"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X25" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="47"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="33"/>
+      <c r="F25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S25" s="8"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X25" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="20"/>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B26" s="49">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B26" s="36">
         <v>432</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="39">
         <v>24</v>
       </c>
-      <c r="D26" s="52" t="str">
+      <c r="D26" s="39" t="str">
         <f>VLOOKUP($B26,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>right</v>
       </c>
-      <c r="E26" s="52" t="str">
+      <c r="E26" s="39" t="str">
         <f>VLOOKUP($B26,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>29.09.2020</v>
       </c>
-      <c r="F26" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="21"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="47"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="33"/>
+      <c r="F26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="20"/>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B27" s="49">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B27" s="36">
         <v>434</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="39">
         <v>8</v>
       </c>
-      <c r="D27" s="52" t="str">
+      <c r="D27" s="39" t="str">
         <f>VLOOKUP($B27,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>right</v>
       </c>
-      <c r="E27" s="52" t="str">
+      <c r="E27" s="39" t="str">
         <f>VLOOKUP($B27,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>29.09.2020</v>
       </c>
-      <c r="F27" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P27" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q27" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R27" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S27" s="21"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X27" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="47"/>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="33"/>
+      <c r="F27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R27" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S27" s="8"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X27" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="20"/>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B28" s="49">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B28" s="36">
         <v>436</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="39">
         <v>12</v>
       </c>
-      <c r="D28" s="52" t="str">
+      <c r="D28" s="39" t="str">
         <f>VLOOKUP($B28,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>right</v>
       </c>
-      <c r="E28" s="52" t="str">
+      <c r="E28" s="39" t="str">
         <f>VLOOKUP($B28,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>29.09.2020</v>
       </c>
-      <c r="F28" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="21"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q28" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R28" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S28" s="21"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X28" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="47"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="33"/>
+      <c r="F28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R28" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S28" s="8"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X28" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="20"/>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B29" s="49">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B29" s="36">
         <v>405</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C29" s="39">
         <v>28</v>
       </c>
-      <c r="D29" s="52" t="str">
+      <c r="D29" s="39" t="str">
         <f>VLOOKUP($B29,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>left</v>
       </c>
-      <c r="E29" s="52" t="str">
+      <c r="E29" s="39" t="str">
         <f>VLOOKUP($B29,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>01.10.2020</v>
       </c>
-      <c r="F29" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P29" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R29" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S29" s="21"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X29" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="47"/>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="33"/>
+      <c r="F29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P29" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q29" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R29" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S29" s="8"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X29" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="20"/>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B30" s="49">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B30" s="36">
         <v>409</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C30" s="39">
         <v>32</v>
       </c>
-      <c r="D30" s="52" t="str">
+      <c r="D30" s="39" t="str">
         <f>VLOOKUP($B30,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>left</v>
       </c>
-      <c r="E30" s="52" t="str">
+      <c r="E30" s="39" t="str">
         <f>VLOOKUP($B30,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>01.10.2020</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="9"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="20"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B31" s="36">
+        <v>419</v>
+      </c>
+      <c r="C31" s="39">
         <v>36</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="22"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="75"/>
-      <c r="X30" s="91"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="47"/>
-      <c r="AA30" s="23"/>
-      <c r="AB30" s="47"/>
-      <c r="AC30" s="23"/>
-      <c r="AD30" s="33"/>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B31" s="49">
-        <v>419</v>
-      </c>
-      <c r="C31" s="52">
-        <v>36</v>
-      </c>
-      <c r="D31" s="52" t="str">
+      <c r="D31" s="39" t="str">
         <f>VLOOKUP($B31,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>right</v>
       </c>
-      <c r="E31" s="52" t="str">
+      <c r="E31" s="39" t="str">
         <f>VLOOKUP($B31,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>01.10.2020</v>
       </c>
-      <c r="F31" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="106"/>
-      <c r="N31" s="22"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="75"/>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="47"/>
-      <c r="AA31" s="23"/>
-      <c r="AB31" s="47"/>
-      <c r="AC31" s="23"/>
-      <c r="AD31" s="33"/>
+      <c r="F31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="9"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="78"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="20"/>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B32" s="49">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B32" s="36">
         <v>425</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C32" s="39">
         <v>40</v>
       </c>
-      <c r="D32" s="52" t="str">
+      <c r="D32" s="39" t="str">
         <f>VLOOKUP($B32,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>right</v>
       </c>
-      <c r="E32" s="52" t="str">
+      <c r="E32" s="39" t="str">
         <f>VLOOKUP($B32,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>01.10.2020</v>
       </c>
-      <c r="F32" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="22"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="75"/>
-      <c r="X32" s="91"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="47"/>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="47"/>
-      <c r="AC32" s="23"/>
-      <c r="AD32" s="33"/>
+      <c r="F32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="9"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="78"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="20"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B33" s="49">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B33" s="36">
         <v>435</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C33" s="39">
         <v>2</v>
       </c>
-      <c r="D33" s="52" t="str">
+      <c r="D33" s="39" t="str">
         <f>VLOOKUP($B33,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>right</v>
       </c>
-      <c r="E33" s="93" t="str">
+      <c r="E33" s="80" t="str">
         <f>VLOOKUP($B33,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>01.10.2020</v>
       </c>
-      <c r="F33" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="22"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="75"/>
-      <c r="X33" s="91"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="47"/>
-      <c r="AA33" s="23"/>
-      <c r="AB33" s="47"/>
-      <c r="AC33" s="23"/>
-      <c r="AD33" s="33"/>
+      <c r="F33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="9"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="78"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="20"/>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B34" s="49">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B34" s="36">
         <v>382</v>
       </c>
-      <c r="C34" s="52">
+      <c r="C34" s="39">
         <v>5</v>
       </c>
-      <c r="D34" s="52" t="str">
+      <c r="D34" s="39" t="str">
         <f>VLOOKUP($B34,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>left</v>
       </c>
-      <c r="E34" s="93" t="str">
+      <c r="E34" s="80" t="str">
         <f>VLOOKUP($B34,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>08.10.2020</v>
       </c>
-      <c r="F34" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="22"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="75"/>
-      <c r="X34" s="91"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="47"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="47"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="33"/>
+      <c r="F34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="9"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="78"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="20"/>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B35" s="49">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B35" s="36">
         <v>416</v>
       </c>
-      <c r="C35" s="52">
+      <c r="C35" s="39">
         <v>11</v>
       </c>
-      <c r="D35" s="52" t="str">
+      <c r="D35" s="39" t="str">
         <f>VLOOKUP($B35,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>left</v>
       </c>
-      <c r="E35" s="93" t="str">
+      <c r="E35" s="80" t="str">
         <f>VLOOKUP($B35,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>08.10.2020</v>
       </c>
-      <c r="F35" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="22"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="75"/>
-      <c r="X35" s="91"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="47"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="33"/>
+      <c r="F35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="9"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="78"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="20"/>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B36" s="49">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B36" s="36">
         <v>424</v>
       </c>
-      <c r="C36" s="52">
+      <c r="C36" s="39">
         <v>13</v>
       </c>
-      <c r="D36" s="52" t="str">
+      <c r="D36" s="39" t="str">
         <f>VLOOKUP($B36,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>right</v>
       </c>
-      <c r="E36" s="93" t="str">
+      <c r="E36" s="80" t="str">
         <f>VLOOKUP($B36,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>08.10.2020</v>
       </c>
-      <c r="F36" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="22"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="47"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="75"/>
-      <c r="X36" s="91"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="47"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="47"/>
-      <c r="AC36" s="23"/>
-      <c r="AD36" s="33"/>
+      <c r="F36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="9"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="78"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="20"/>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B37" s="49">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B37" s="36">
         <v>384</v>
       </c>
-      <c r="C37" s="52">
+      <c r="C37" s="39">
         <v>25</v>
       </c>
-      <c r="D37" s="52" t="str">
+      <c r="D37" s="39" t="str">
         <f>VLOOKUP($B37,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>left</v>
       </c>
-      <c r="E37" s="93" t="str">
+      <c r="E37" s="80" t="str">
         <f>VLOOKUP($B37,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>13.10.2020</v>
       </c>
-      <c r="F37" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="22"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="47"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="75"/>
-      <c r="X37" s="91"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="23"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="23"/>
-      <c r="AD37" s="33"/>
+      <c r="F37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="9"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="78"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="20"/>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B38" s="49">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B38" s="36">
         <v>388</v>
       </c>
-      <c r="C38" s="52">
+      <c r="C38" s="39">
         <v>19</v>
       </c>
-      <c r="D38" s="52" t="str">
+      <c r="D38" s="39" t="str">
         <f>VLOOKUP($B38,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>right</v>
       </c>
-      <c r="E38" s="93" t="str">
+      <c r="E38" s="80" t="str">
         <f>VLOOKUP($B38,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>13.10.2020</v>
       </c>
-      <c r="F38" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="26"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="22"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="33"/>
-      <c r="W38" s="75"/>
-      <c r="X38" s="91"/>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="47"/>
-      <c r="AA38" s="23"/>
-      <c r="AB38" s="47"/>
-      <c r="AC38" s="23"/>
-      <c r="AD38" s="33"/>
+      <c r="F38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="9"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="78"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="20"/>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B39" s="49">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B39" s="36">
         <v>393</v>
       </c>
-      <c r="C39" s="52">
+      <c r="C39" s="39">
         <v>22</v>
       </c>
-      <c r="D39" s="52" t="str">
+      <c r="D39" s="39" t="str">
         <f>VLOOKUP($B39,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>left</v>
       </c>
-      <c r="E39" s="93" t="str">
+      <c r="E39" s="80" t="str">
         <f>VLOOKUP($B39,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>13.10.2020</v>
       </c>
-      <c r="F39" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="22"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="75"/>
-      <c r="X39" s="91"/>
-      <c r="Y39" s="23"/>
-      <c r="Z39" s="47"/>
-      <c r="AA39" s="23"/>
-      <c r="AB39" s="47"/>
-      <c r="AC39" s="23"/>
-      <c r="AD39" s="33"/>
+      <c r="F39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="9"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="78"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="20"/>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B40" s="49">
+    <row r="40" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B40" s="36">
         <v>394</v>
       </c>
-      <c r="C40" s="52">
+      <c r="C40" s="39">
         <v>27</v>
       </c>
-      <c r="D40" s="52" t="str">
+      <c r="D40" s="39" t="str">
         <f>VLOOKUP($B40,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>right</v>
       </c>
-      <c r="E40" s="93" t="str">
+      <c r="E40" s="80" t="str">
         <f>VLOOKUP($B40,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>13.10.2020</v>
       </c>
-      <c r="F40" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="22"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="33"/>
-      <c r="W40" s="75"/>
-      <c r="X40" s="91"/>
-      <c r="Y40" s="23"/>
-      <c r="Z40" s="47"/>
-      <c r="AA40" s="23"/>
-      <c r="AB40" s="47"/>
-      <c r="AC40" s="23"/>
-      <c r="AD40" s="33"/>
+      <c r="F40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="9"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="62"/>
+      <c r="X40" s="78"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="20"/>
     </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B41" s="49">
+    <row r="41" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B41" s="36">
         <v>400</v>
       </c>
-      <c r="C41" s="52">
+      <c r="C41" s="39">
         <v>20</v>
       </c>
-      <c r="D41" s="52" t="str">
+      <c r="D41" s="39" t="str">
         <f>VLOOKUP($B41,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>right</v>
       </c>
-      <c r="E41" s="93" t="str">
+      <c r="E41" s="80" t="str">
         <f>VLOOKUP($B41,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>13.10.2020</v>
       </c>
-      <c r="F41" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="22"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="75"/>
-      <c r="X41" s="91"/>
-      <c r="Y41" s="23"/>
-      <c r="Z41" s="47"/>
-      <c r="AA41" s="23"/>
-      <c r="AB41" s="47"/>
-      <c r="AC41" s="23"/>
-      <c r="AD41" s="33"/>
+      <c r="F41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="9"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="62"/>
+      <c r="X41" s="78"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="20"/>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B42" s="49">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B42" s="36">
         <v>403</v>
       </c>
-      <c r="C42" s="52">
+      <c r="C42" s="39">
         <v>21</v>
       </c>
-      <c r="D42" s="52" t="str">
+      <c r="D42" s="39" t="str">
         <f>VLOOKUP($B42,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>left</v>
       </c>
-      <c r="E42" s="93" t="str">
+      <c r="E42" s="80" t="str">
         <f>VLOOKUP($B42,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>13.10.2020</v>
       </c>
-      <c r="F42" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="22"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="75"/>
-      <c r="X42" s="91"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="47"/>
-      <c r="AA42" s="23"/>
-      <c r="AB42" s="47"/>
-      <c r="AC42" s="23"/>
-      <c r="AD42" s="33"/>
+      <c r="F42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="9"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="62"/>
+      <c r="X42" s="78"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="20"/>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B43" s="88">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B43" s="75">
         <v>412</v>
       </c>
-      <c r="C43" s="52">
+      <c r="C43" s="39">
         <v>26</v>
       </c>
-      <c r="D43" s="52" t="str">
+      <c r="D43" s="39" t="str">
         <f>VLOOKUP($B43,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>left</v>
       </c>
-      <c r="E43" s="93" t="str">
+      <c r="E43" s="80" t="str">
         <f>VLOOKUP($B43,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>13.10.2020</v>
       </c>
-      <c r="F43" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="22"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="47"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="75"/>
-      <c r="X43" s="91"/>
-      <c r="Y43" s="23"/>
-      <c r="Z43" s="47"/>
-      <c r="AA43" s="23"/>
-      <c r="AB43" s="47"/>
-      <c r="AC43" s="23"/>
-      <c r="AD43" s="33"/>
+      <c r="F43" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="9"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="62"/>
+      <c r="X43" s="78"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="20"/>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B44" s="88"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="22"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="47"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="33"/>
-      <c r="W44" s="75"/>
-      <c r="X44" s="91"/>
-      <c r="Y44" s="23"/>
-      <c r="Z44" s="47"/>
-      <c r="AA44" s="23"/>
-      <c r="AB44" s="47"/>
-      <c r="AC44" s="23"/>
-      <c r="AD44" s="33"/>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B44" s="75"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="9"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="62"/>
+      <c r="X44" s="78"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="20"/>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B45" s="88"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="22"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="75"/>
-      <c r="X45" s="91"/>
-      <c r="Y45" s="23"/>
-      <c r="Z45" s="47"/>
-      <c r="AA45" s="23"/>
-      <c r="AB45" s="47"/>
-      <c r="AC45" s="23"/>
-      <c r="AD45" s="33"/>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B45" s="75"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="9"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="62"/>
+      <c r="X45" s="78"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="20"/>
     </row>
-    <row r="46" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="107"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="97"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="98"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="98"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="109"/>
-      <c r="P46" s="100"/>
-      <c r="Q46" s="98"/>
-      <c r="R46" s="100"/>
-      <c r="S46" s="98"/>
-      <c r="T46" s="101"/>
-      <c r="U46" s="102"/>
-      <c r="V46" s="103"/>
-      <c r="W46" s="104"/>
-      <c r="X46" s="105"/>
-      <c r="Y46" s="102"/>
-      <c r="Z46" s="101"/>
-      <c r="AA46" s="102"/>
-      <c r="AB46" s="101"/>
-      <c r="AC46" s="102"/>
-      <c r="AD46" s="103"/>
+    <row r="46" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="94"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="96"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="85"/>
+      <c r="R46" s="87"/>
+      <c r="S46" s="85"/>
+      <c r="T46" s="88"/>
+      <c r="U46" s="89"/>
+      <c r="V46" s="90"/>
+      <c r="W46" s="91"/>
+      <c r="X46" s="92"/>
+      <c r="Y46" s="89"/>
+      <c r="Z46" s="88"/>
+      <c r="AA46" s="89"/>
+      <c r="AB46" s="88"/>
+      <c r="AC46" s="89"/>
+      <c r="AD46" s="90"/>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B47" s="88">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B47" s="75">
         <v>177</v>
       </c>
-      <c r="C47" s="52">
+      <c r="C47" s="39">
         <v>10</v>
       </c>
-      <c r="D47" s="52" t="str">
+      <c r="D47" s="39" t="str">
         <f>VLOOKUP($B47,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
         <v>right</v>
       </c>
-      <c r="E47" s="93" t="str">
+      <c r="E47" s="80" t="str">
         <f>VLOOKUP($B47,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
         <v>05.08.2020</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="9"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="62"/>
+      <c r="X47" s="78"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="20"/>
+    </row>
+    <row r="48" spans="2:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="38"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="66"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="66"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="64"/>
+      <c r="X48" s="79"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="21"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="21"/>
+      <c r="AD48" s="22"/>
+    </row>
+    <row r="49" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+    </row>
+    <row r="50" spans="2:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+    </row>
+    <row r="51" spans="2:35" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G51" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="111"/>
+      <c r="L51" s="111"/>
+      <c r="M51" s="111"/>
+      <c r="N51" s="111"/>
+      <c r="O51" s="111"/>
+      <c r="P51" s="111"/>
+      <c r="Q51" s="111"/>
+      <c r="R51" s="111"/>
+      <c r="S51" s="111"/>
+      <c r="T51" s="111"/>
+      <c r="U51" s="111"/>
+      <c r="V51" s="112"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="44"/>
+      <c r="Y51" s="44"/>
+      <c r="Z51" s="44"/>
+      <c r="AA51" s="44"/>
+      <c r="AB51" s="44"/>
+      <c r="AC51" s="44"/>
+      <c r="AD51" s="44"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="10"/>
+      <c r="AI51" s="10"/>
+    </row>
+    <row r="52" spans="2:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G52" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="108"/>
+      <c r="K52" s="108"/>
+      <c r="L52" s="108"/>
+      <c r="M52" s="108"/>
+      <c r="N52" s="109"/>
+      <c r="O52" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="P52" s="108"/>
+      <c r="Q52" s="108"/>
+      <c r="R52" s="108"/>
+      <c r="S52" s="108"/>
+      <c r="T52" s="108"/>
+      <c r="U52" s="108"/>
+      <c r="V52" s="109"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="10"/>
+      <c r="AI52" s="10"/>
+    </row>
+    <row r="53" spans="2:35" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" s="98"/>
+      <c r="I53" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" s="98"/>
+      <c r="K53" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" s="98"/>
+      <c r="M53" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="N53" s="99"/>
+      <c r="O53" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="P53" s="98"/>
+      <c r="Q53" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="R53" s="98"/>
+      <c r="S53" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="T53" s="98"/>
+      <c r="U53" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="V53" s="99"/>
+    </row>
+    <row r="54" spans="2:35" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="102"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="106"/>
+      <c r="G54" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M54" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N54" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P54" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q54" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R54" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S54" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="T54" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="U54" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="V54" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B55" s="41">
+        <v>69</v>
+      </c>
+      <c r="C55" s="45">
         <v>40</v>
       </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="22"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="33"/>
-      <c r="W47" s="75"/>
-      <c r="X47" s="91"/>
-      <c r="Y47" s="23"/>
-      <c r="Z47" s="47"/>
-      <c r="AA47" s="23"/>
-      <c r="AB47" s="47"/>
-      <c r="AC47" s="23"/>
-      <c r="AD47" s="33"/>
+      <c r="D55" s="42">
+        <v>25</v>
+      </c>
+      <c r="E55" s="48">
+        <v>44154</v>
+      </c>
+      <c r="F55" s="56">
+        <v>44172</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="7"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q55" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R55" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S55" s="8"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="20"/>
     </row>
-    <row r="48" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="51"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="79"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="78"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="79"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="79"/>
-      <c r="T48" s="48"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="77"/>
-      <c r="X48" s="92"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="48"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="48"/>
-      <c r="AC48" s="34"/>
-      <c r="AD48" s="35"/>
+    <row r="56" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B56" s="36">
+        <v>94</v>
+      </c>
+      <c r="C56" s="8">
+        <v>39</v>
+      </c>
+      <c r="D56" s="39">
+        <v>25</v>
+      </c>
+      <c r="E56" s="49">
+        <v>44158</v>
+      </c>
+      <c r="F56" s="57">
+        <v>44175</v>
+      </c>
+      <c r="G56" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="8"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="P56" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q56" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R56" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S56" s="8"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="20"/>
     </row>
-    <row r="49" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="23"/>
-      <c r="W49" s="23"/>
-      <c r="X49" s="23"/>
-      <c r="Y49" s="23"/>
-      <c r="Z49" s="23"/>
-      <c r="AA49" s="23"/>
-      <c r="AB49" s="23"/>
-      <c r="AC49" s="23"/>
-      <c r="AD49" s="23"/>
+    <row r="57" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B57" s="36">
+        <v>102</v>
+      </c>
+      <c r="C57" s="8">
+        <v>40</v>
+      </c>
+      <c r="D57" s="39">
+        <v>25</v>
+      </c>
+      <c r="E57" s="49">
+        <v>44191</v>
+      </c>
+      <c r="F57" s="57">
+        <v>44178</v>
+      </c>
+      <c r="G57" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" s="25"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="P57" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="20"/>
     </row>
-    <row r="50" spans="2:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="23"/>
-      <c r="W50" s="23"/>
-      <c r="X50" s="23"/>
-      <c r="Y50" s="23"/>
-      <c r="Z50" s="23"/>
-      <c r="AA50" s="23"/>
-      <c r="AB50" s="23"/>
-      <c r="AC50" s="23"/>
-      <c r="AD50" s="23"/>
+    <row r="58" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B58" s="36">
+        <v>38</v>
+      </c>
+      <c r="C58" s="8">
+        <v>29</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="49">
+        <v>44167</v>
+      </c>
+      <c r="F58" s="57">
+        <v>44187</v>
+      </c>
+      <c r="G58" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" s="25"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="P58" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="34"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="20"/>
     </row>
-    <row r="51" spans="2:35" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G51" s="125" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="126"/>
-      <c r="K51" s="126"/>
-      <c r="L51" s="126"/>
-      <c r="M51" s="126"/>
-      <c r="N51" s="126"/>
-      <c r="O51" s="126"/>
-      <c r="P51" s="126"/>
-      <c r="Q51" s="126"/>
-      <c r="R51" s="126"/>
-      <c r="S51" s="126"/>
-      <c r="T51" s="126"/>
-      <c r="U51" s="126"/>
-      <c r="V51" s="127"/>
-      <c r="W51" s="57"/>
-      <c r="X51" s="57"/>
-      <c r="Y51" s="57"/>
-      <c r="Z51" s="57"/>
-      <c r="AA51" s="57"/>
-      <c r="AB51" s="57"/>
-      <c r="AC51" s="57"/>
-      <c r="AD51" s="57"/>
-      <c r="AE51" s="23"/>
-      <c r="AF51" s="23"/>
-      <c r="AG51" s="23"/>
-      <c r="AH51" s="23"/>
-      <c r="AI51" s="23"/>
+    <row r="59" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B59" s="36">
+        <v>67</v>
+      </c>
+      <c r="C59" s="8">
+        <v>30</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="49">
+        <v>44167</v>
+      </c>
+      <c r="F59" s="57">
+        <v>44187</v>
+      </c>
+      <c r="G59" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" s="25"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="P59" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="34"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="20"/>
     </row>
-    <row r="52" spans="2:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G52" s="122" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="123"/>
-      <c r="I52" s="123"/>
-      <c r="J52" s="123"/>
-      <c r="K52" s="123"/>
-      <c r="L52" s="123"/>
-      <c r="M52" s="123"/>
-      <c r="N52" s="124"/>
-      <c r="O52" s="123" t="s">
+    <row r="60" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B60" s="36">
+        <v>42</v>
+      </c>
+      <c r="C60" s="8">
+        <v>26</v>
+      </c>
+      <c r="D60" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="P52" s="123"/>
-      <c r="Q52" s="123"/>
-      <c r="R52" s="123"/>
-      <c r="S52" s="123"/>
-      <c r="T52" s="123"/>
-      <c r="U52" s="123"/>
-      <c r="V52" s="124"/>
-      <c r="W52" s="18"/>
-      <c r="X52" s="18"/>
-      <c r="Y52" s="18"/>
-      <c r="Z52" s="18"/>
-      <c r="AA52" s="18"/>
-      <c r="AB52" s="18"/>
-      <c r="AC52" s="18"/>
-      <c r="AD52" s="18"/>
-      <c r="AE52" s="23"/>
-      <c r="AF52" s="23"/>
-      <c r="AG52" s="23"/>
-      <c r="AH52" s="23"/>
-      <c r="AI52" s="23"/>
+      <c r="E60" s="49">
+        <v>44169</v>
+      </c>
+      <c r="F60" s="57">
+        <v>44189</v>
+      </c>
+      <c r="G60" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J60" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="8"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="P60" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q60" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R60" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S60" s="8"/>
+      <c r="T60" s="34"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="20"/>
     </row>
-    <row r="53" spans="2:35" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="116" t="s">
+    <row r="61" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B61" s="36">
+        <v>60</v>
+      </c>
+      <c r="C61" s="8">
+        <v>24</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="49">
+        <v>44169</v>
+      </c>
+      <c r="F61" s="57">
+        <v>44189</v>
+      </c>
+      <c r="G61" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61" s="8"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="P61" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q61" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R61" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S61" s="8"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="20"/>
+    </row>
+    <row r="62" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B62" s="36">
+        <v>48</v>
+      </c>
+      <c r="C62" s="8">
+        <v>22</v>
+      </c>
+      <c r="D62" s="39">
+        <v>30</v>
+      </c>
+      <c r="E62" s="70">
+        <v>44172</v>
+      </c>
+      <c r="F62" s="71">
+        <v>44192</v>
+      </c>
+      <c r="G62" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J62" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="8"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="P62" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q62" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R62" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S62" s="8"/>
+      <c r="T62" s="34"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="20"/>
+    </row>
+    <row r="63" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B63" s="36">
+        <v>66</v>
+      </c>
+      <c r="C63" s="8">
+        <v>5</v>
+      </c>
+      <c r="D63" s="39">
+        <v>35</v>
+      </c>
+      <c r="E63" s="49">
+        <v>44179</v>
+      </c>
+      <c r="F63" s="57">
+        <v>44200</v>
+      </c>
+      <c r="G63" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="25"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="P63" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="20"/>
+    </row>
+    <row r="64" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B64" s="36">
+        <v>126</v>
+      </c>
+      <c r="C64" s="8">
+        <v>4</v>
+      </c>
+      <c r="D64" s="39">
+        <v>35</v>
+      </c>
+      <c r="E64" s="49">
+        <v>44179</v>
+      </c>
+      <c r="F64" s="57">
+        <v>44200</v>
+      </c>
+      <c r="G64" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="25"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="P64" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="20"/>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B65" s="75">
+        <v>13</v>
+      </c>
+      <c r="C65" s="8">
+        <v>12</v>
+      </c>
+      <c r="D65" s="39">
+        <v>20</v>
+      </c>
+      <c r="E65" s="49">
+        <v>44179</v>
+      </c>
+      <c r="F65" s="57">
+        <v>44200</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="20"/>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B66" s="75">
+        <v>28</v>
+      </c>
+      <c r="C66" s="8">
         <v>8</v>
       </c>
-      <c r="C53" s="118" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" s="118" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" s="120" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="113"/>
-      <c r="I53" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="J53" s="113"/>
-      <c r="K53" s="114" t="s">
-        <v>29</v>
-      </c>
-      <c r="L53" s="113"/>
-      <c r="M53" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="N53" s="128"/>
-      <c r="O53" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="P53" s="113"/>
-      <c r="Q53" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="R53" s="113"/>
-      <c r="S53" s="114" t="s">
-        <v>29</v>
-      </c>
-      <c r="T53" s="113"/>
-      <c r="U53" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="V53" s="128"/>
+      <c r="D66" s="39">
+        <v>20</v>
+      </c>
+      <c r="E66" s="49">
+        <v>44179</v>
+      </c>
+      <c r="F66" s="57">
+        <v>44200</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="20"/>
     </row>
-    <row r="54" spans="2:35" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="117"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="121"/>
-      <c r="G54" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I54" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J54" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="K54" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="L54" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="M54" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="N54" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="O54" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="P54" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q54" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="R54" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="S54" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="T54" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="U54" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="V54" s="31" t="s">
-        <v>28</v>
-      </c>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B67" s="75">
+        <v>145</v>
+      </c>
+      <c r="C67" s="8">
+        <v>11</v>
+      </c>
+      <c r="D67" s="39">
+        <v>20</v>
+      </c>
+      <c r="E67" s="49">
+        <v>44179</v>
+      </c>
+      <c r="F67" s="57">
+        <v>44200</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="34"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="20"/>
     </row>
-    <row r="55" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B55" s="54">
-        <v>69</v>
-      </c>
-      <c r="C55" s="58">
-        <v>40</v>
-      </c>
-      <c r="D55" s="55">
-        <v>25</v>
-      </c>
-      <c r="E55" s="61">
-        <v>44154</v>
-      </c>
-      <c r="F55" s="69">
-        <v>44172</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="J55" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="20"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="P55" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q55" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R55" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S55" s="21"/>
-      <c r="T55" s="47"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="33"/>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B68" s="37"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="30"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="20"/>
     </row>
-    <row r="56" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B56" s="49">
-        <v>94</v>
-      </c>
-      <c r="C56" s="21">
-        <v>39</v>
-      </c>
-      <c r="D56" s="52">
-        <v>25</v>
-      </c>
-      <c r="E56" s="62">
-        <v>44158</v>
-      </c>
-      <c r="F56" s="70">
-        <v>44175</v>
-      </c>
-      <c r="G56" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J56" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="21"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="P56" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q56" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R56" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S56" s="21"/>
-      <c r="T56" s="47"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="33"/>
+    <row r="69" spans="2:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="38"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="74"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="72"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="72"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="72"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="58"/>
+      <c r="R69" s="31"/>
+      <c r="S69" s="58"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="21"/>
+      <c r="V69" s="22"/>
     </row>
-    <row r="57" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B57" s="49">
-        <v>102</v>
-      </c>
-      <c r="C57" s="21">
-        <v>40</v>
-      </c>
-      <c r="D57" s="52">
-        <v>25</v>
-      </c>
-      <c r="E57" s="62">
-        <v>44191</v>
-      </c>
-      <c r="F57" s="70">
-        <v>44178</v>
-      </c>
-      <c r="G57" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="38"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="P57" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="43"/>
-      <c r="S57" s="21"/>
-      <c r="T57" s="47"/>
-      <c r="U57" s="23"/>
-      <c r="V57" s="33"/>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
     </row>
-    <row r="58" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B58" s="49">
-        <v>38</v>
-      </c>
-      <c r="C58" s="21">
-        <v>29</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="62">
-        <v>44167</v>
-      </c>
-      <c r="F58" s="70">
-        <v>44187</v>
-      </c>
-      <c r="G58" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" s="38"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="43"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="P58" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="43"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="47"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="33"/>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
     </row>
-    <row r="59" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B59" s="49">
-        <v>67</v>
-      </c>
-      <c r="C59" s="21">
-        <v>30</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59" s="62">
-        <v>44167</v>
-      </c>
-      <c r="F59" s="70">
-        <v>44187</v>
-      </c>
-      <c r="G59" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="38"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="P59" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="43"/>
-      <c r="S59" s="21"/>
-      <c r="T59" s="47"/>
-      <c r="U59" s="23"/>
-      <c r="V59" s="33"/>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
     </row>
-    <row r="60" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B60" s="49">
-        <v>42</v>
-      </c>
-      <c r="C60" s="21">
-        <v>26</v>
-      </c>
-      <c r="D60" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="62">
-        <v>44169</v>
-      </c>
-      <c r="F60" s="70">
-        <v>44189</v>
-      </c>
-      <c r="G60" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J60" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="21"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="P60" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q60" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R60" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S60" s="21"/>
-      <c r="T60" s="47"/>
-      <c r="U60" s="23"/>
-      <c r="V60" s="33"/>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
     </row>
-    <row r="61" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B61" s="49">
-        <v>60</v>
-      </c>
-      <c r="C61" s="21">
-        <v>24</v>
-      </c>
-      <c r="D61" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="62">
-        <v>44169</v>
-      </c>
-      <c r="F61" s="70">
-        <v>44189</v>
-      </c>
-      <c r="G61" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J61" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="21"/>
-      <c r="L61" s="43"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="P61" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q61" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R61" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S61" s="21"/>
-      <c r="T61" s="47"/>
-      <c r="U61" s="23"/>
-      <c r="V61" s="33"/>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
     </row>
-    <row r="62" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B62" s="49">
-        <v>48</v>
-      </c>
-      <c r="C62" s="21">
-        <v>22</v>
-      </c>
-      <c r="D62" s="52">
-        <v>30</v>
-      </c>
-      <c r="E62" s="83">
-        <v>44172</v>
-      </c>
-      <c r="F62" s="84">
-        <v>44192</v>
-      </c>
-      <c r="G62" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J62" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="21"/>
-      <c r="L62" s="43"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="P62" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q62" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R62" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S62" s="21"/>
-      <c r="T62" s="47"/>
-      <c r="U62" s="23"/>
-      <c r="V62" s="33"/>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
     </row>
-    <row r="63" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B63" s="49">
-        <v>66</v>
-      </c>
-      <c r="C63" s="21">
-        <v>5</v>
-      </c>
-      <c r="D63" s="52">
-        <v>35</v>
-      </c>
-      <c r="E63" s="62">
-        <v>44179</v>
-      </c>
-      <c r="F63" s="70">
-        <v>44200</v>
-      </c>
-      <c r="G63" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" s="38"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="P63" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="43"/>
-      <c r="S63" s="21"/>
-      <c r="T63" s="47"/>
-      <c r="U63" s="23"/>
-      <c r="V63" s="33"/>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
     </row>
-    <row r="64" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B64" s="49">
-        <v>126</v>
-      </c>
-      <c r="C64" s="21">
-        <v>4</v>
-      </c>
-      <c r="D64" s="52">
-        <v>35</v>
-      </c>
-      <c r="E64" s="62">
-        <v>44179</v>
-      </c>
-      <c r="F64" s="70">
-        <v>44200</v>
-      </c>
-      <c r="G64" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" s="38"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="P64" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="43"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="47"/>
-      <c r="U64" s="23"/>
-      <c r="V64" s="33"/>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B65" s="88">
-        <v>13</v>
-      </c>
-      <c r="C65" s="21">
-        <v>12</v>
-      </c>
-      <c r="D65" s="52">
-        <v>20</v>
-      </c>
-      <c r="E65" s="62">
-        <v>44179</v>
-      </c>
-      <c r="F65" s="70">
-        <v>44200</v>
-      </c>
-      <c r="G65" s="19"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="42"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="43"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="47"/>
-      <c r="U65" s="23"/>
-      <c r="V65" s="33"/>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B66" s="88">
-        <v>28</v>
-      </c>
-      <c r="C66" s="21">
-        <v>8</v>
-      </c>
-      <c r="D66" s="52">
-        <v>20</v>
-      </c>
-      <c r="E66" s="62">
-        <v>44179</v>
-      </c>
-      <c r="F66" s="70">
-        <v>44200</v>
-      </c>
-      <c r="G66" s="19"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="42"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="43"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="47"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="33"/>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B67" s="88">
-        <v>145</v>
-      </c>
-      <c r="C67" s="21">
-        <v>11</v>
-      </c>
-      <c r="D67" s="52">
-        <v>20</v>
-      </c>
-      <c r="E67" s="62">
-        <v>44179</v>
-      </c>
-      <c r="F67" s="70">
-        <v>44200</v>
-      </c>
-      <c r="G67" s="19"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="43"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="42"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="43"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="47"/>
-      <c r="U67" s="23"/>
-      <c r="V67" s="33"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B68" s="50"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="42"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="43"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="47"/>
-      <c r="U68" s="23"/>
-      <c r="V68" s="33"/>
-    </row>
-    <row r="69" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="51"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="87"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="85"/>
-      <c r="L69" s="44"/>
-      <c r="M69" s="85"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="85"/>
-      <c r="P69" s="44"/>
-      <c r="Q69" s="71"/>
-      <c r="R69" s="44"/>
-      <c r="S69" s="71"/>
-      <c r="T69" s="48"/>
-      <c r="U69" s="34"/>
-      <c r="V69" s="35"/>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="21"/>
-      <c r="P70" s="21"/>
-      <c r="Q70" s="21"/>
-      <c r="R70" s="21"/>
-      <c r="S70" s="21"/>
-      <c r="T70" s="23"/>
-      <c r="U70" s="23"/>
-      <c r="V70" s="23"/>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="21"/>
-      <c r="O71" s="21"/>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="21"/>
-      <c r="R71" s="21"/>
-      <c r="S71" s="21"/>
-      <c r="T71" s="23"/>
-      <c r="U71" s="23"/>
-      <c r="V71" s="23"/>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="21"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="21"/>
-      <c r="S72" s="21"/>
-      <c r="T72" s="23"/>
-      <c r="U72" s="23"/>
-      <c r="V72" s="23"/>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="23"/>
-      <c r="U73" s="23"/>
-      <c r="V73" s="23"/>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="23"/>
-      <c r="U74" s="23"/>
-      <c r="V74" s="23"/>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="21"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="23"/>
-      <c r="U75" s="23"/>
-      <c r="V75" s="23"/>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="21"/>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="21"/>
-      <c r="S76" s="21"/>
-      <c r="T76" s="23"/>
-      <c r="U76" s="23"/>
-      <c r="V76" s="23"/>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:V53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="AF7:AF9"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G52:N52"/>
     <mergeCell ref="O52:V52"/>
     <mergeCell ref="G51:V51"/>
@@ -10968,700 +10870,20 @@
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="G3:N3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="AG8:AK8"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="AF7:AF9"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D2FEDF-1069-6A42-9CFB-E2ACABA8D594}">
-  <dimension ref="A1:R37"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="5" width="10.6640625" style="1" customWidth="1"/>
-    <col min="6" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="13" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:18" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="133" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="135"/>
-    </row>
-    <row r="3" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="136" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="138"/>
-    </row>
-    <row r="4" spans="1:18" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>298</v>
-      </c>
-      <c r="B5" s="1">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f>VLOOKUP($A5,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
-        <v>none</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f>VLOOKUP($A5,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
-        <v>27.06.2020</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>283</v>
-      </c>
-      <c r="B6" s="1">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f>VLOOKUP($A6,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
-        <v>none</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>VLOOKUP($A6,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
-        <v>07.07.2020</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="M6" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="110" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>296</v>
-      </c>
-      <c r="B7" s="1">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f>VLOOKUP($A7,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
-        <v>none</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f>VLOOKUP($A7,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
-        <v>14.07.2020</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="110" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>297</v>
-      </c>
-      <c r="B8" s="1">
-        <v>39</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f>VLOOKUP($A8,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
-        <v>none</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f>VLOOKUP($A8,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
-        <v>13.08.2020</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="110" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>330</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f>VLOOKUP($A9,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
-        <v>none</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f>VLOOKUP($A9,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
-        <v>13.08.2020</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>340</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f>VLOOKUP($A10,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
-        <v>none</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f>VLOOKUP($A10,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
-        <v>13.08.2020</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>269</v>
-      </c>
-      <c r="B11" s="1">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f>VLOOKUP($A11,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
-        <v>none</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f>VLOOKUP($A11,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
-        <v>25.08.2020</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>314</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f>VLOOKUP($A12,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
-        <v>none</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f>VLOOKUP($A12,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
-        <v>25.08.2020</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>319</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f>VLOOKUP($A13,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
-        <v>none</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f>VLOOKUP($A13,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
-        <v>25.08.2020</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>344</v>
-      </c>
-      <c r="B14" s="1">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f>VLOOKUP($A14,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
-        <v>none</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f>VLOOKUP($A14,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
-        <v>25.08.2020</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>351</v>
-      </c>
-      <c r="B15" s="1">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f>VLOOKUP($A15,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
-        <v>none</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f>VLOOKUP($A15,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
-        <v>25.08.2020</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="132"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>373</v>
-      </c>
-      <c r="B16" s="1">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f>VLOOKUP($A16,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
-        <v>none</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f>VLOOKUP($A16,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
-        <v>25.08.2020</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>379</v>
-      </c>
-      <c r="B17" s="1">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f>VLOOKUP($A17,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
-        <v>none</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f>VLOOKUP($A17,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
-        <v>25.08.2020</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>354</v>
-      </c>
-      <c r="B18" s="1">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f>VLOOKUP($A18,[1]CrossingStats!$A$1:$P$149,4,FALSE)</f>
-        <v>none</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f>VLOOKUP($A18,[1]CrossingStats!$A$1:$P$149,7,FALSE)</f>
-        <v>15.09.2020</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F19" s="11"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F20" s="11"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F21" s="11"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F22" s="11"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F23" s="11"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F24" s="11"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F25" s="11"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F26" s="11"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F27" s="11"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F28" s="11"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F29" s="11"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F30" s="11"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F31" s="11"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F32" s="11"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10"/>
-    </row>
-    <row r="33" spans="6:11" x14ac:dyDescent="0.2">
-      <c r="F33" s="11"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="10"/>
-    </row>
-    <row r="34" spans="6:11" x14ac:dyDescent="0.2">
-      <c r="F34" s="11"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="10"/>
-    </row>
-    <row r="35" spans="6:11" x14ac:dyDescent="0.2">
-      <c r="F35" s="11"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="10"/>
-    </row>
-    <row r="36" spans="6:11" x14ac:dyDescent="0.2">
-      <c r="F36" s="11"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="37" spans="6:11" x14ac:dyDescent="0.2">
-      <c r="F37" s="11"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/plate_info/SummaryAnalizedPlates.xlsx
+++ b/plate_info/SummaryAnalizedPlates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coren\Documents\WUR\MsC Thesis\code\plate_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9F4167-2755-46F8-B0A2-FE708A50B43C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C7131A-D4D0-4B91-9805-5235DFF878A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82D79ED9-50EF-C049-AB06-E57D2479A472}"/>
   </bookViews>
@@ -623,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -877,6 +877,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -972,8 +973,8 @@
       <sheetName val="qPCR 1P 100N"/>
       <sheetName val="qPCR 100P 100N"/>
       <sheetName val="CrossingStats"/>
+      <sheetName val="DoNotChange"/>
       <sheetName val="18.09.19 Plate pictures"/>
-      <sheetName val="DoNotChange"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -7041,7 +7042,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7344,10 +7345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A272A16E-E3F9-384D-9E29-D88BCF4CFB49}">
-  <dimension ref="B1:AK77"/>
+  <dimension ref="B1:AK78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7363,136 +7364,136 @@
   <sheetData>
     <row r="1" spans="2:37" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:37" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G2" s="110" t="s">
+      <c r="G2" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="111"/>
-      <c r="AD2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="113"/>
     </row>
     <row r="3" spans="2:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G3" s="113" t="s">
+      <c r="G3" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="113" t="s">
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="107" t="s">
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="110"/>
     </row>
     <row r="4" spans="2:37" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="103" t="s">
+      <c r="E4" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="100" t="s">
+      <c r="G4" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="97" t="s">
+      <c r="H4" s="99"/>
+      <c r="I4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="98"/>
-      <c r="K4" s="97" t="s">
+      <c r="J4" s="99"/>
+      <c r="K4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="97" t="s">
+      <c r="L4" s="99"/>
+      <c r="M4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="115"/>
-      <c r="O4" s="100" t="s">
+      <c r="N4" s="116"/>
+      <c r="O4" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="97" t="s">
+      <c r="P4" s="99"/>
+      <c r="Q4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="98"/>
-      <c r="S4" s="97" t="s">
+      <c r="R4" s="99"/>
+      <c r="S4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="98"/>
-      <c r="U4" s="97" t="s">
+      <c r="T4" s="99"/>
+      <c r="U4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="99"/>
-      <c r="W4" s="115" t="s">
+      <c r="V4" s="100"/>
+      <c r="W4" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="97" t="s">
+      <c r="X4" s="99"/>
+      <c r="Y4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="97" t="s">
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="97" t="s">
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="AD4" s="99"/>
+      <c r="AD4" s="100"/>
     </row>
     <row r="5" spans="2:37" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="102"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="106"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="107"/>
       <c r="G5" s="14" t="s">
         <v>24</v>
       </c>
@@ -7697,16 +7698,16 @@
       <c r="AB7" s="34"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="20"/>
-      <c r="AF7" s="117" t="s">
+      <c r="AF7" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="AG7" s="116" t="s">
+      <c r="AG7" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="AH7" s="116"/>
-      <c r="AI7" s="116"/>
-      <c r="AJ7" s="116"/>
-      <c r="AK7" s="116"/>
+      <c r="AH7" s="117"/>
+      <c r="AI7" s="117"/>
+      <c r="AJ7" s="117"/>
+      <c r="AK7" s="117"/>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B8" s="36">
@@ -7774,14 +7775,14 @@
       <c r="AB8" s="34"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="20"/>
-      <c r="AF8" s="117"/>
-      <c r="AG8" s="116" t="s">
+      <c r="AF8" s="118"/>
+      <c r="AG8" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="AH8" s="116"/>
-      <c r="AI8" s="116"/>
-      <c r="AJ8" s="116"/>
-      <c r="AK8" s="116"/>
+      <c r="AH8" s="117"/>
+      <c r="AI8" s="117"/>
+      <c r="AJ8" s="117"/>
+      <c r="AK8" s="117"/>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B9" s="36">
@@ -7845,14 +7846,14 @@
       <c r="AB9" s="34"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="20"/>
-      <c r="AF9" s="117"/>
-      <c r="AG9" s="116" t="s">
+      <c r="AF9" s="118"/>
+      <c r="AG9" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="AH9" s="116"/>
-      <c r="AI9" s="116"/>
-      <c r="AJ9" s="116"/>
-      <c r="AK9" s="116"/>
+      <c r="AH9" s="117"/>
+      <c r="AI9" s="117"/>
+      <c r="AJ9" s="117"/>
+      <c r="AK9" s="117"/>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B10" s="36">
@@ -9930,24 +9931,24 @@
       <c r="AD50" s="10"/>
     </row>
     <row r="51" spans="2:35" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G51" s="110" t="s">
+      <c r="G51" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="H51" s="111"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="111"/>
-      <c r="K51" s="111"/>
-      <c r="L51" s="111"/>
-      <c r="M51" s="111"/>
-      <c r="N51" s="111"/>
-      <c r="O51" s="111"/>
-      <c r="P51" s="111"/>
-      <c r="Q51" s="111"/>
-      <c r="R51" s="111"/>
-      <c r="S51" s="111"/>
-      <c r="T51" s="111"/>
-      <c r="U51" s="111"/>
-      <c r="V51" s="112"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="112"/>
+      <c r="J51" s="112"/>
+      <c r="K51" s="112"/>
+      <c r="L51" s="112"/>
+      <c r="M51" s="112"/>
+      <c r="N51" s="112"/>
+      <c r="O51" s="112"/>
+      <c r="P51" s="112"/>
+      <c r="Q51" s="112"/>
+      <c r="R51" s="112"/>
+      <c r="S51" s="112"/>
+      <c r="T51" s="112"/>
+      <c r="U51" s="112"/>
+      <c r="V51" s="113"/>
       <c r="W51" s="44"/>
       <c r="X51" s="44"/>
       <c r="Y51" s="44"/>
@@ -9963,26 +9964,26 @@
       <c r="AI51" s="10"/>
     </row>
     <row r="52" spans="2:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G52" s="107" t="s">
+      <c r="G52" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="108"/>
-      <c r="I52" s="108"/>
-      <c r="J52" s="108"/>
-      <c r="K52" s="108"/>
-      <c r="L52" s="108"/>
-      <c r="M52" s="108"/>
-      <c r="N52" s="109"/>
-      <c r="O52" s="108" t="s">
+      <c r="H52" s="109"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="109"/>
+      <c r="K52" s="109"/>
+      <c r="L52" s="109"/>
+      <c r="M52" s="109"/>
+      <c r="N52" s="110"/>
+      <c r="O52" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="P52" s="108"/>
-      <c r="Q52" s="108"/>
-      <c r="R52" s="108"/>
-      <c r="S52" s="108"/>
-      <c r="T52" s="108"/>
-      <c r="U52" s="108"/>
-      <c r="V52" s="109"/>
+      <c r="P52" s="109"/>
+      <c r="Q52" s="109"/>
+      <c r="R52" s="109"/>
+      <c r="S52" s="109"/>
+      <c r="T52" s="109"/>
+      <c r="U52" s="109"/>
+      <c r="V52" s="110"/>
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
@@ -9998,60 +9999,60 @@
       <c r="AI52" s="10"/>
     </row>
     <row r="53" spans="2:35" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="101" t="s">
+      <c r="B53" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="103" t="s">
+      <c r="C53" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="103" t="s">
+      <c r="D53" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="E53" s="103" t="s">
+      <c r="E53" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F53" s="105" t="s">
+      <c r="F53" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="100" t="s">
+      <c r="G53" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="H53" s="98"/>
-      <c r="I53" s="97" t="s">
+      <c r="H53" s="99"/>
+      <c r="I53" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="J53" s="98"/>
-      <c r="K53" s="97" t="s">
+      <c r="J53" s="99"/>
+      <c r="K53" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="L53" s="98"/>
-      <c r="M53" s="97" t="s">
+      <c r="L53" s="99"/>
+      <c r="M53" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="N53" s="99"/>
-      <c r="O53" s="100" t="s">
+      <c r="N53" s="100"/>
+      <c r="O53" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="P53" s="98"/>
-      <c r="Q53" s="97" t="s">
+      <c r="P53" s="99"/>
+      <c r="Q53" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="R53" s="98"/>
-      <c r="S53" s="97" t="s">
+      <c r="R53" s="99"/>
+      <c r="S53" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="T53" s="98"/>
-      <c r="U53" s="97" t="s">
+      <c r="T53" s="99"/>
+      <c r="U53" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="V53" s="99"/>
+      <c r="V53" s="100"/>
     </row>
     <row r="54" spans="2:35" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="102"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="106"/>
+      <c r="B54" s="103"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="107"/>
       <c r="G54" s="16" t="s">
         <v>24</v>
       </c>
@@ -10201,40 +10202,32 @@
     </row>
     <row r="57" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B57" s="36">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C57" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D57" s="39">
         <v>25</v>
       </c>
-      <c r="E57" s="49">
-        <v>44191</v>
+      <c r="E57" s="97">
+        <v>44161</v>
       </c>
       <c r="F57" s="57">
-        <v>44178</v>
-      </c>
-      <c r="G57" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>44183</v>
+      </c>
+      <c r="G57" s="61"/>
+      <c r="H57" s="7"/>
       <c r="I57" s="25"/>
       <c r="J57" s="29"/>
       <c r="K57" s="8"/>
       <c r="L57" s="30"/>
       <c r="M57" s="8"/>
       <c r="N57" s="9"/>
-      <c r="O57" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="P57" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="30"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="29"/>
       <c r="S57" s="8"/>
       <c r="T57" s="34"/>
       <c r="U57" s="10"/>
@@ -10242,19 +10235,19 @@
     </row>
     <row r="58" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B58" s="36">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="C58" s="8">
-        <v>29</v>
-      </c>
-      <c r="D58" s="39" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="D58" s="39">
+        <v>25</v>
       </c>
       <c r="E58" s="49">
-        <v>44167</v>
+        <v>44191</v>
       </c>
       <c r="F58" s="57">
-        <v>44187</v>
+        <v>44209</v>
       </c>
       <c r="G58" s="61" t="s">
         <v>9</v>
@@ -10274,7 +10267,7 @@
       <c r="P58" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="Q58" s="8"/>
+      <c r="Q58" s="26"/>
       <c r="R58" s="30"/>
       <c r="S58" s="8"/>
       <c r="T58" s="34"/>
@@ -10283,10 +10276,10 @@
     </row>
     <row r="59" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B59" s="36">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C59" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D59" s="39" t="s">
         <v>34</v>
@@ -10324,19 +10317,19 @@
     </row>
     <row r="60" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B60" s="36">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C60" s="8">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D60" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E60" s="49">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="F60" s="57">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="G60" s="61" t="s">
         <v>9</v>
@@ -10344,12 +10337,8 @@
       <c r="H60" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I60" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J60" s="29" t="s">
-        <v>9</v>
-      </c>
+      <c r="I60" s="25"/>
+      <c r="J60" s="29"/>
       <c r="K60" s="8"/>
       <c r="L60" s="30"/>
       <c r="M60" s="8"/>
@@ -10360,12 +10349,8 @@
       <c r="P60" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="Q60" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="R60" s="29" t="s">
-        <v>9</v>
-      </c>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="30"/>
       <c r="S60" s="8"/>
       <c r="T60" s="34"/>
       <c r="U60" s="10"/>
@@ -10373,10 +10358,10 @@
     </row>
     <row r="61" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B61" s="36">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C61" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D61" s="39" t="s">
         <v>34</v>
@@ -10422,19 +10407,19 @@
     </row>
     <row r="62" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B62" s="36">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C62" s="8">
-        <v>22</v>
-      </c>
-      <c r="D62" s="39">
-        <v>30</v>
-      </c>
-      <c r="E62" s="70">
-        <v>44172</v>
-      </c>
-      <c r="F62" s="71">
-        <v>44192</v>
+        <v>24</v>
+      </c>
+      <c r="D62" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="49">
+        <v>44169</v>
+      </c>
+      <c r="F62" s="57">
+        <v>44189</v>
       </c>
       <c r="G62" s="61" t="s">
         <v>9</v>
@@ -10471,19 +10456,19 @@
     </row>
     <row r="63" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B63" s="36">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C63" s="8">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D63" s="39">
-        <v>35</v>
-      </c>
-      <c r="E63" s="49">
-        <v>44179</v>
-      </c>
-      <c r="F63" s="57">
-        <v>44200</v>
+        <v>30</v>
+      </c>
+      <c r="E63" s="70">
+        <v>44172</v>
+      </c>
+      <c r="F63" s="71">
+        <v>44192</v>
       </c>
       <c r="G63" s="61" t="s">
         <v>9</v>
@@ -10491,8 +10476,12 @@
       <c r="H63" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I63" s="25"/>
-      <c r="J63" s="29"/>
+      <c r="I63" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="K63" s="8"/>
       <c r="L63" s="30"/>
       <c r="M63" s="8"/>
@@ -10503,8 +10492,12 @@
       <c r="P63" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="30"/>
+      <c r="Q63" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R63" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="S63" s="8"/>
       <c r="T63" s="34"/>
       <c r="U63" s="10"/>
@@ -10512,10 +10505,10 @@
     </row>
     <row r="64" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B64" s="36">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="C64" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" s="39">
         <v>35</v>
@@ -10552,14 +10545,14 @@
       <c r="V64" s="20"/>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B65" s="75">
-        <v>13</v>
+      <c r="B65" s="36">
+        <v>126</v>
       </c>
       <c r="C65" s="8">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D65" s="39">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E65" s="49">
         <v>44179</v>
@@ -10567,16 +10560,24 @@
       <c r="F65" s="57">
         <v>44200</v>
       </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="7"/>
+      <c r="G65" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="I65" s="25"/>
       <c r="J65" s="29"/>
       <c r="K65" s="8"/>
       <c r="L65" s="30"/>
       <c r="M65" s="8"/>
       <c r="N65" s="9"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="29"/>
+      <c r="O65" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="P65" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="Q65" s="8"/>
       <c r="R65" s="30"/>
       <c r="S65" s="8"/>
@@ -10586,10 +10587,10 @@
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B66" s="75">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C66" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D66" s="39">
         <v>20</v>
@@ -10619,10 +10620,10 @@
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B67" s="75">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="C67" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D67" s="39">
         <v>20</v>
@@ -10651,11 +10652,21 @@
       <c r="V67" s="20"/>
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B68" s="37"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="57"/>
+      <c r="B68" s="75">
+        <v>145</v>
+      </c>
+      <c r="C68" s="8">
+        <v>11</v>
+      </c>
+      <c r="D68" s="39">
+        <v>20</v>
+      </c>
+      <c r="E68" s="49">
+        <v>44179</v>
+      </c>
+      <c r="F68" s="57">
+        <v>44200</v>
+      </c>
       <c r="G68" s="6"/>
       <c r="H68" s="7"/>
       <c r="I68" s="25"/>
@@ -10673,46 +10684,51 @@
       <c r="U68" s="10"/>
       <c r="V68" s="20"/>
     </row>
-    <row r="69" spans="2:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="38"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="74"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="55"/>
-      <c r="K69" s="72"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="72"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="72"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="58"/>
-      <c r="R69" s="31"/>
-      <c r="S69" s="58"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="21"/>
-      <c r="V69" s="22"/>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B69" s="37"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="30"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="20"/>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="10"/>
+    <row r="70" spans="2:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="38"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="55"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="72"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="72"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="58"/>
+      <c r="R70" s="31"/>
+      <c r="S70" s="58"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="21"/>
+      <c r="V70" s="22"/>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.3">
       <c r="G71" s="8"/>
@@ -10769,7 +10785,6 @@
       <c r="V73" s="10"/>
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
@@ -10839,6 +10854,25 @@
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+    </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="41">

--- a/plate_info/SummaryAnalizedPlates.xlsx
+++ b/plate_info/SummaryAnalizedPlates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coren\Documents\WUR\MsC Thesis\code\plate_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C7131A-D4D0-4B91-9805-5235DFF878A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F885F5-3FC6-4E71-B4A6-C2D49BD12442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82D79ED9-50EF-C049-AB06-E57D2479A472}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{82D79ED9-50EF-C049-AB06-E57D2479A472}"/>
   </bookViews>
   <sheets>
     <sheet name="Main sum" sheetId="3" r:id="rId1"/>
@@ -878,16 +878,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -926,20 +932,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7345,10 +7345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A272A16E-E3F9-384D-9E29-D88BCF4CFB49}">
-  <dimension ref="B1:AK78"/>
+  <dimension ref="B1:AK83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7364,136 +7364,136 @@
   <sheetData>
     <row r="1" spans="2:37" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:37" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="113"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="114"/>
+      <c r="AA2" s="114"/>
+      <c r="AB2" s="114"/>
+      <c r="AC2" s="114"/>
+      <c r="AD2" s="115"/>
     </row>
     <row r="3" spans="2:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="114" t="s">
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="108" t="s">
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="110"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="111"/>
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="112"/>
     </row>
     <row r="4" spans="2:37" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="98" t="s">
+      <c r="H4" s="101"/>
+      <c r="I4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="98" t="s">
+      <c r="J4" s="101"/>
+      <c r="K4" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="98" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="116"/>
-      <c r="O4" s="101" t="s">
+      <c r="N4" s="103"/>
+      <c r="O4" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="98" t="s">
+      <c r="P4" s="101"/>
+      <c r="Q4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="99"/>
-      <c r="S4" s="98" t="s">
+      <c r="R4" s="101"/>
+      <c r="S4" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="99"/>
-      <c r="U4" s="98" t="s">
+      <c r="T4" s="101"/>
+      <c r="U4" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="100"/>
-      <c r="W4" s="116" t="s">
+      <c r="V4" s="116"/>
+      <c r="W4" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="98" t="s">
+      <c r="X4" s="101"/>
+      <c r="Y4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="98" t="s">
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="98" t="s">
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="AD4" s="100"/>
+      <c r="AD4" s="116"/>
     </row>
     <row r="5" spans="2:37" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="103"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="107"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="109"/>
       <c r="G5" s="14" t="s">
         <v>24</v>
       </c>
@@ -7698,16 +7698,16 @@
       <c r="AB7" s="34"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="20"/>
-      <c r="AF7" s="118" t="s">
+      <c r="AF7" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="AG7" s="117" t="s">
+      <c r="AG7" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="AH7" s="117"/>
-      <c r="AI7" s="117"/>
-      <c r="AJ7" s="117"/>
-      <c r="AK7" s="117"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="98"/>
+      <c r="AK7" s="98"/>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B8" s="36">
@@ -7775,14 +7775,14 @@
       <c r="AB8" s="34"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="20"/>
-      <c r="AF8" s="118"/>
-      <c r="AG8" s="117" t="s">
+      <c r="AF8" s="99"/>
+      <c r="AG8" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="AH8" s="117"/>
-      <c r="AI8" s="117"/>
-      <c r="AJ8" s="117"/>
-      <c r="AK8" s="117"/>
+      <c r="AH8" s="98"/>
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="98"/>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B9" s="36">
@@ -7846,14 +7846,14 @@
       <c r="AB9" s="34"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="20"/>
-      <c r="AF9" s="118"/>
-      <c r="AG9" s="117" t="s">
+      <c r="AF9" s="99"/>
+      <c r="AG9" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="AH9" s="117"/>
-      <c r="AI9" s="117"/>
-      <c r="AJ9" s="117"/>
-      <c r="AK9" s="117"/>
+      <c r="AH9" s="98"/>
+      <c r="AI9" s="98"/>
+      <c r="AJ9" s="98"/>
+      <c r="AK9" s="98"/>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B10" s="36">
@@ -9931,24 +9931,24 @@
       <c r="AD50" s="10"/>
     </row>
     <row r="51" spans="2:35" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G51" s="111" t="s">
+      <c r="G51" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="H51" s="112"/>
-      <c r="I51" s="112"/>
-      <c r="J51" s="112"/>
-      <c r="K51" s="112"/>
-      <c r="L51" s="112"/>
-      <c r="M51" s="112"/>
-      <c r="N51" s="112"/>
-      <c r="O51" s="112"/>
-      <c r="P51" s="112"/>
-      <c r="Q51" s="112"/>
-      <c r="R51" s="112"/>
-      <c r="S51" s="112"/>
-      <c r="T51" s="112"/>
-      <c r="U51" s="112"/>
-      <c r="V51" s="113"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="114"/>
+      <c r="L51" s="114"/>
+      <c r="M51" s="114"/>
+      <c r="N51" s="114"/>
+      <c r="O51" s="114"/>
+      <c r="P51" s="114"/>
+      <c r="Q51" s="114"/>
+      <c r="R51" s="114"/>
+      <c r="S51" s="114"/>
+      <c r="T51" s="114"/>
+      <c r="U51" s="114"/>
+      <c r="V51" s="115"/>
       <c r="W51" s="44"/>
       <c r="X51" s="44"/>
       <c r="Y51" s="44"/>
@@ -9964,26 +9964,26 @@
       <c r="AI51" s="10"/>
     </row>
     <row r="52" spans="2:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G52" s="108" t="s">
+      <c r="G52" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="109"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="109"/>
-      <c r="K52" s="109"/>
-      <c r="L52" s="109"/>
-      <c r="M52" s="109"/>
-      <c r="N52" s="110"/>
-      <c r="O52" s="109" t="s">
+      <c r="H52" s="111"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="111"/>
+      <c r="K52" s="111"/>
+      <c r="L52" s="111"/>
+      <c r="M52" s="111"/>
+      <c r="N52" s="112"/>
+      <c r="O52" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="P52" s="109"/>
-      <c r="Q52" s="109"/>
-      <c r="R52" s="109"/>
-      <c r="S52" s="109"/>
-      <c r="T52" s="109"/>
-      <c r="U52" s="109"/>
-      <c r="V52" s="110"/>
+      <c r="P52" s="111"/>
+      <c r="Q52" s="111"/>
+      <c r="R52" s="111"/>
+      <c r="S52" s="111"/>
+      <c r="T52" s="111"/>
+      <c r="U52" s="111"/>
+      <c r="V52" s="112"/>
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
@@ -9999,60 +9999,60 @@
       <c r="AI52" s="10"/>
     </row>
     <row r="53" spans="2:35" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="102" t="s">
+      <c r="B53" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="104" t="s">
+      <c r="C53" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="104" t="s">
+      <c r="D53" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="E53" s="104" t="s">
+      <c r="E53" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="F53" s="106" t="s">
+      <c r="F53" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="101" t="s">
+      <c r="G53" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="H53" s="99"/>
-      <c r="I53" s="98" t="s">
+      <c r="H53" s="101"/>
+      <c r="I53" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="J53" s="99"/>
-      <c r="K53" s="98" t="s">
+      <c r="J53" s="101"/>
+      <c r="K53" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="L53" s="99"/>
-      <c r="M53" s="98" t="s">
+      <c r="L53" s="101"/>
+      <c r="M53" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="N53" s="100"/>
-      <c r="O53" s="101" t="s">
+      <c r="N53" s="116"/>
+      <c r="O53" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="P53" s="99"/>
-      <c r="Q53" s="98" t="s">
+      <c r="P53" s="101"/>
+      <c r="Q53" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="R53" s="99"/>
-      <c r="S53" s="98" t="s">
+      <c r="R53" s="101"/>
+      <c r="S53" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="T53" s="99"/>
-      <c r="U53" s="98" t="s">
+      <c r="T53" s="101"/>
+      <c r="U53" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="V53" s="100"/>
+      <c r="V53" s="116"/>
     </row>
     <row r="54" spans="2:35" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="103"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="107"/>
+      <c r="B54" s="105"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="109"/>
       <c r="G54" s="16" t="s">
         <v>24</v>
       </c>
@@ -10235,40 +10235,32 @@
     </row>
     <row r="58" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B58" s="36">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C58" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D58" s="39">
         <v>25</v>
       </c>
-      <c r="E58" s="49">
-        <v>44191</v>
-      </c>
-      <c r="F58" s="57">
-        <v>44209</v>
-      </c>
-      <c r="G58" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="E58" s="97">
+        <v>44182</v>
+      </c>
+      <c r="F58" s="97">
+        <v>43835</v>
+      </c>
+      <c r="G58" s="61"/>
+      <c r="H58" s="7"/>
       <c r="I58" s="25"/>
       <c r="J58" s="29"/>
       <c r="K58" s="8"/>
       <c r="L58" s="30"/>
       <c r="M58" s="8"/>
       <c r="N58" s="9"/>
-      <c r="O58" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="P58" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="30"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="29"/>
       <c r="S58" s="8"/>
       <c r="T58" s="34"/>
       <c r="U58" s="10"/>
@@ -10276,40 +10268,32 @@
     </row>
     <row r="59" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B59" s="36">
+        <v>137</v>
+      </c>
+      <c r="C59" s="8">
         <v>38</v>
       </c>
-      <c r="C59" s="8">
-        <v>29</v>
-      </c>
-      <c r="D59" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="49">
-        <v>44167</v>
-      </c>
-      <c r="F59" s="57">
-        <v>44187</v>
-      </c>
-      <c r="G59" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="D59" s="39">
+        <v>25</v>
+      </c>
+      <c r="E59" s="97">
+        <v>44182</v>
+      </c>
+      <c r="F59" s="97">
+        <v>44191</v>
+      </c>
+      <c r="G59" s="61"/>
+      <c r="H59" s="7"/>
       <c r="I59" s="25"/>
       <c r="J59" s="29"/>
       <c r="K59" s="8"/>
       <c r="L59" s="30"/>
       <c r="M59" s="8"/>
       <c r="N59" s="9"/>
-      <c r="O59" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="P59" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="30"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="29"/>
       <c r="S59" s="8"/>
       <c r="T59" s="34"/>
       <c r="U59" s="10"/>
@@ -10317,40 +10301,32 @@
     </row>
     <row r="60" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B60" s="36">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="C60" s="8">
-        <v>30</v>
-      </c>
-      <c r="D60" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" s="49">
-        <v>44167</v>
+        <v>32</v>
+      </c>
+      <c r="D60" s="39">
+        <v>25</v>
+      </c>
+      <c r="E60" s="97">
+        <v>44189</v>
       </c>
       <c r="F60" s="57">
-        <v>44187</v>
-      </c>
-      <c r="G60" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>43843</v>
+      </c>
+      <c r="G60" s="61"/>
+      <c r="H60" s="7"/>
       <c r="I60" s="25"/>
       <c r="J60" s="29"/>
       <c r="K60" s="8"/>
       <c r="L60" s="30"/>
       <c r="M60" s="8"/>
       <c r="N60" s="9"/>
-      <c r="O60" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="P60" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="30"/>
+      <c r="O60" s="73"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="29"/>
       <c r="S60" s="8"/>
       <c r="T60" s="34"/>
       <c r="U60" s="10"/>
@@ -10358,48 +10334,32 @@
     </row>
     <row r="61" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B61" s="36">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C61" s="8">
-        <v>26</v>
-      </c>
-      <c r="D61" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E61" s="49">
-        <v>44169</v>
+        <v>36</v>
+      </c>
+      <c r="D61" s="39">
+        <v>25</v>
+      </c>
+      <c r="E61" s="97">
+        <v>44162</v>
       </c>
       <c r="F61" s="57">
-        <v>44189</v>
-      </c>
-      <c r="G61" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J61" s="29" t="s">
-        <v>9</v>
-      </c>
+        <v>44171</v>
+      </c>
+      <c r="G61" s="61"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="29"/>
       <c r="K61" s="8"/>
       <c r="L61" s="30"/>
       <c r="M61" s="8"/>
       <c r="N61" s="9"/>
-      <c r="O61" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="P61" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q61" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="R61" s="29" t="s">
-        <v>9</v>
-      </c>
+      <c r="O61" s="73"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="29"/>
       <c r="S61" s="8"/>
       <c r="T61" s="34"/>
       <c r="U61" s="10"/>
@@ -10407,48 +10367,32 @@
     </row>
     <row r="62" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B62" s="36">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C62" s="8">
-        <v>24</v>
-      </c>
-      <c r="D62" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="49">
-        <v>44169</v>
+        <v>39</v>
+      </c>
+      <c r="D62" s="39">
+        <v>25</v>
+      </c>
+      <c r="E62" s="97">
+        <v>43834</v>
       </c>
       <c r="F62" s="57">
-        <v>44189</v>
-      </c>
-      <c r="G62" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J62" s="29" t="s">
-        <v>9</v>
-      </c>
+        <v>43843</v>
+      </c>
+      <c r="G62" s="61"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="29"/>
       <c r="K62" s="8"/>
       <c r="L62" s="30"/>
       <c r="M62" s="8"/>
       <c r="N62" s="9"/>
-      <c r="O62" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="P62" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q62" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="R62" s="29" t="s">
-        <v>9</v>
-      </c>
+      <c r="O62" s="73"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="29"/>
       <c r="S62" s="8"/>
       <c r="T62" s="34"/>
       <c r="U62" s="10"/>
@@ -10456,19 +10400,19 @@
     </row>
     <row r="63" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B63" s="36">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C63" s="8">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D63" s="39">
-        <v>30</v>
-      </c>
-      <c r="E63" s="70">
-        <v>44172</v>
-      </c>
-      <c r="F63" s="71">
-        <v>44192</v>
+        <v>25</v>
+      </c>
+      <c r="E63" s="49">
+        <v>44191</v>
+      </c>
+      <c r="F63" s="57">
+        <v>44209</v>
       </c>
       <c r="G63" s="61" t="s">
         <v>9</v>
@@ -10476,12 +10420,8 @@
       <c r="H63" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I63" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J63" s="29" t="s">
-        <v>9</v>
-      </c>
+      <c r="I63" s="25"/>
+      <c r="J63" s="29"/>
       <c r="K63" s="8"/>
       <c r="L63" s="30"/>
       <c r="M63" s="8"/>
@@ -10492,12 +10432,8 @@
       <c r="P63" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="Q63" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="R63" s="29" t="s">
-        <v>9</v>
-      </c>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="30"/>
       <c r="S63" s="8"/>
       <c r="T63" s="34"/>
       <c r="U63" s="10"/>
@@ -10505,19 +10441,19 @@
     </row>
     <row r="64" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B64" s="36">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C64" s="8">
-        <v>5</v>
-      </c>
-      <c r="D64" s="39">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="E64" s="49">
-        <v>44179</v>
+        <v>44167</v>
       </c>
       <c r="F64" s="57">
-        <v>44200</v>
+        <v>44187</v>
       </c>
       <c r="G64" s="61" t="s">
         <v>9</v>
@@ -10546,19 +10482,19 @@
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B65" s="36">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="C65" s="8">
-        <v>4</v>
-      </c>
-      <c r="D65" s="39">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="E65" s="49">
-        <v>44179</v>
+        <v>44167</v>
       </c>
       <c r="F65" s="57">
-        <v>44200</v>
+        <v>44187</v>
       </c>
       <c r="G65" s="61" t="s">
         <v>9</v>
@@ -10586,120 +10522,186 @@
       <c r="V65" s="20"/>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B66" s="75">
-        <v>13</v>
+      <c r="B66" s="36">
+        <v>42</v>
       </c>
       <c r="C66" s="8">
-        <v>12</v>
-      </c>
-      <c r="D66" s="39">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="D66" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="E66" s="49">
-        <v>44179</v>
+        <v>44169</v>
       </c>
       <c r="F66" s="57">
-        <v>44200</v>
-      </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="29"/>
+        <v>44189</v>
+      </c>
+      <c r="G66" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J66" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="K66" s="8"/>
       <c r="L66" s="30"/>
       <c r="M66" s="8"/>
       <c r="N66" s="9"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="30"/>
+      <c r="O66" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="P66" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q66" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R66" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="S66" s="8"/>
       <c r="T66" s="34"/>
       <c r="U66" s="10"/>
       <c r="V66" s="20"/>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B67" s="75">
-        <v>28</v>
+      <c r="B67" s="36">
+        <v>60</v>
       </c>
       <c r="C67" s="8">
-        <v>8</v>
-      </c>
-      <c r="D67" s="39">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="E67" s="49">
-        <v>44179</v>
+        <v>44169</v>
       </c>
       <c r="F67" s="57">
-        <v>44200</v>
-      </c>
-      <c r="G67" s="6"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="29"/>
+        <v>44189</v>
+      </c>
+      <c r="G67" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J67" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="K67" s="8"/>
       <c r="L67" s="30"/>
       <c r="M67" s="8"/>
       <c r="N67" s="9"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="30"/>
+      <c r="O67" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="P67" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q67" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R67" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="S67" s="8"/>
       <c r="T67" s="34"/>
       <c r="U67" s="10"/>
       <c r="V67" s="20"/>
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B68" s="75">
-        <v>145</v>
+      <c r="B68" s="36">
+        <v>48</v>
       </c>
       <c r="C68" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D68" s="39">
-        <v>20</v>
-      </c>
-      <c r="E68" s="49">
-        <v>44179</v>
-      </c>
-      <c r="F68" s="57">
-        <v>44200</v>
-      </c>
-      <c r="G68" s="6"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="29"/>
+        <v>30</v>
+      </c>
+      <c r="E68" s="70">
+        <v>44172</v>
+      </c>
+      <c r="F68" s="71">
+        <v>44192</v>
+      </c>
+      <c r="G68" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J68" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="K68" s="8"/>
       <c r="L68" s="30"/>
       <c r="M68" s="8"/>
       <c r="N68" s="9"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="30"/>
+      <c r="O68" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="P68" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q68" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R68" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="S68" s="8"/>
       <c r="T68" s="34"/>
       <c r="U68" s="10"/>
       <c r="V68" s="20"/>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B69" s="37"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="7"/>
+      <c r="B69" s="36">
+        <v>66</v>
+      </c>
+      <c r="C69" s="8">
+        <v>5</v>
+      </c>
+      <c r="D69" s="39">
+        <v>35</v>
+      </c>
+      <c r="E69" s="49">
+        <v>44179</v>
+      </c>
+      <c r="F69" s="57">
+        <v>44200</v>
+      </c>
+      <c r="G69" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="I69" s="25"/>
       <c r="J69" s="29"/>
       <c r="K69" s="8"/>
       <c r="L69" s="30"/>
       <c r="M69" s="8"/>
       <c r="N69" s="9"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="29"/>
+      <c r="O69" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="P69" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="Q69" s="8"/>
       <c r="R69" s="30"/>
       <c r="S69" s="8"/>
@@ -10707,122 +10709,193 @@
       <c r="U69" s="10"/>
       <c r="V69" s="20"/>
     </row>
-    <row r="70" spans="2:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="38"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="74"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="55"/>
-      <c r="K70" s="72"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="72"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="72"/>
-      <c r="P70" s="31"/>
-      <c r="Q70" s="58"/>
-      <c r="R70" s="31"/>
-      <c r="S70" s="58"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="21"/>
-      <c r="V70" s="22"/>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B70" s="36">
+        <v>126</v>
+      </c>
+      <c r="C70" s="8">
+        <v>4</v>
+      </c>
+      <c r="D70" s="39">
+        <v>35</v>
+      </c>
+      <c r="E70" s="49">
+        <v>44179</v>
+      </c>
+      <c r="F70" s="57">
+        <v>44200</v>
+      </c>
+      <c r="G70" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" s="25"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="P70" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="30"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="34"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="20"/>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
+      <c r="B71" s="75">
+        <v>13</v>
+      </c>
+      <c r="C71" s="8">
+        <v>12</v>
+      </c>
+      <c r="D71" s="39">
+        <v>20</v>
+      </c>
+      <c r="E71" s="49">
+        <v>44179</v>
+      </c>
+      <c r="F71" s="57">
+        <v>44200</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="29"/>
       <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
+      <c r="L71" s="30"/>
       <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
+      <c r="N71" s="9"/>
       <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
+      <c r="P71" s="29"/>
       <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
+      <c r="R71" s="30"/>
       <c r="S71" s="8"/>
-      <c r="T71" s="10"/>
+      <c r="T71" s="34"/>
       <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
+      <c r="V71" s="20"/>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
+      <c r="B72" s="75">
+        <v>28</v>
+      </c>
+      <c r="C72" s="8">
+        <v>8</v>
+      </c>
+      <c r="D72" s="39">
+        <v>20</v>
+      </c>
+      <c r="E72" s="49">
+        <v>44179</v>
+      </c>
+      <c r="F72" s="57">
+        <v>44200</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="29"/>
       <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
+      <c r="L72" s="30"/>
       <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
+      <c r="N72" s="9"/>
       <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
+      <c r="P72" s="29"/>
       <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
+      <c r="R72" s="30"/>
       <c r="S72" s="8"/>
-      <c r="T72" s="10"/>
+      <c r="T72" s="34"/>
       <c r="U72" s="10"/>
-      <c r="V72" s="10"/>
+      <c r="V72" s="20"/>
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
+      <c r="B73" s="75">
+        <v>145</v>
+      </c>
+      <c r="C73" s="8">
+        <v>11</v>
+      </c>
+      <c r="D73" s="39">
+        <v>20</v>
+      </c>
+      <c r="E73" s="49">
+        <v>44179</v>
+      </c>
+      <c r="F73" s="57">
+        <v>44200</v>
+      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="29"/>
       <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
+      <c r="L73" s="30"/>
       <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
+      <c r="N73" s="9"/>
       <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
+      <c r="P73" s="29"/>
       <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
+      <c r="R73" s="30"/>
       <c r="S73" s="8"/>
-      <c r="T73" s="10"/>
+      <c r="T73" s="34"/>
       <c r="U73" s="10"/>
-      <c r="V73" s="10"/>
+      <c r="V73" s="20"/>
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="29"/>
       <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
+      <c r="L74" s="30"/>
       <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
+      <c r="N74" s="9"/>
       <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
+      <c r="P74" s="29"/>
       <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
+      <c r="R74" s="30"/>
       <c r="S74" s="8"/>
-      <c r="T74" s="10"/>
+      <c r="T74" s="34"/>
       <c r="U74" s="10"/>
-      <c r="V74" s="10"/>
+      <c r="V74" s="20"/>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="10"/>
-      <c r="V75" s="10"/>
+    <row r="75" spans="2:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="38"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="53"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="55"/>
+      <c r="K75" s="72"/>
+      <c r="L75" s="31"/>
+      <c r="M75" s="72"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="72"/>
+      <c r="P75" s="31"/>
+      <c r="Q75" s="58"/>
+      <c r="R75" s="31"/>
+      <c r="S75" s="58"/>
+      <c r="T75" s="35"/>
+      <c r="U75" s="21"/>
+      <c r="V75" s="22"/>
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
@@ -10841,7 +10914,6 @@
       <c r="V76" s="10"/>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
@@ -10860,7 +10932,6 @@
       <c r="V77" s="10"/>
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
@@ -10873,24 +10944,116 @@
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="10"/>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+    </row>
+    <row r="81" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="10"/>
+      <c r="V81" s="10"/>
+    </row>
+    <row r="82" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="10"/>
+      <c r="V82" s="10"/>
+    </row>
+    <row r="83" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="AG8:AK8"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="AF7:AF9"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
     <mergeCell ref="G52:N52"/>
     <mergeCell ref="O52:V52"/>
     <mergeCell ref="G51:V51"/>
@@ -10904,19 +11067,21 @@
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="G3:N3"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:V53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="AF7:AF9"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plate_info/SummaryAnalizedPlates.xlsx
+++ b/plate_info/SummaryAnalizedPlates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coren\Documents\WUR\MsC Thesis\code\plate_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F885F5-3FC6-4E71-B4A6-C2D49BD12442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858A04BD-E4EC-432A-BA0E-64722A2A6E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{82D79ED9-50EF-C049-AB06-E57D2479A472}"/>
   </bookViews>
@@ -7347,8 +7347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A272A16E-E3F9-384D-9E29-D88BCF4CFB49}">
   <dimension ref="B1:AK83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10247,7 +10247,7 @@
         <v>44182</v>
       </c>
       <c r="F58" s="97">
-        <v>43835</v>
+        <v>44201</v>
       </c>
       <c r="G58" s="61"/>
       <c r="H58" s="7"/>
@@ -10313,7 +10313,7 @@
         <v>44189</v>
       </c>
       <c r="F60" s="57">
-        <v>43843</v>
+        <v>44209</v>
       </c>
       <c r="G60" s="61"/>
       <c r="H60" s="7"/>
@@ -10379,7 +10379,7 @@
         <v>43834</v>
       </c>
       <c r="F62" s="57">
-        <v>43843</v>
+        <v>44209</v>
       </c>
       <c r="G62" s="61"/>
       <c r="H62" s="7"/>
